--- a/Final Exam/Final Answers.xlsx
+++ b/Final Exam/Final Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\github\CS 484\nsbgit\IIT-S21-CS-484\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C6DCF-8ABA-477A-BC29-1BA6FCB2B732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096542C-7E14-4905-A502-0DABC243DE3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>#Question</t>
   </si>
@@ -685,7 +685,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,10 +731,12 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="4" t="b">
         <f t="shared" ref="D3:D21" si="0">B3=C3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/Final Exam/Final Answers.xlsx
+++ b/Final Exam/Final Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\github\CS 484\nsbgit\IIT-S21-CS-484\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096542C-7E14-4905-A502-0DABC243DE3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CA1AB5-3BBF-420C-9A88-9822E9EAD896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>#Question</t>
   </si>
@@ -685,7 +685,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,12 +744,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,10 +761,12 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,10 +776,12 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,7 +791,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -900,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="4" t="b">

--- a/Final Exam/Final Answers.xlsx
+++ b/Final Exam/Final Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\github\CS 484\nsbgit\IIT-S21-CS-484\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CA1AB5-3BBF-420C-9A88-9822E9EAD896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695FA12-A9A5-424D-A2E2-395DF8D2BB5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>#Question</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Intercept =  1.0000,  0.0000043 u , -0.0000016 v (if I round coeff. u &amp; v to fourth dec place we get 0.0000)</t>
+  </si>
+  <si>
+    <t>Discord New</t>
+  </si>
+  <si>
+    <t>a, d</t>
+  </si>
+  <si>
+    <t>Intercept: 2, u: -1, v: 1</t>
   </si>
 </sst>
 </file>
@@ -253,11 +262,14 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -266,90 +278,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -375,15 +303,104 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FE73"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,14 +422,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7A86E9F-DAE1-40C5-8CAA-F543C45D8207}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D21" xr:uid="{379C52BE-95AF-4782-A3BC-40C61197C808}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9C7BC957-0827-4B11-B867-626A20940E90}" name="#Question" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{207B6249-1B44-4DC0-AE3C-5E4D22D37DE0}" name="Discord" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{994F931F-5D46-4E10-8ADA-2F2703803BF1}" name="My Try" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B203D1CF-1B30-4B37-BFF2-6B064A7ED6B1}" name="My Try Status" dataDxfId="0">
-      <calculatedColumnFormula>B2=C2</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7A86E9F-DAE1-40C5-8CAA-F543C45D8207}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:E21" xr:uid="{379C52BE-95AF-4782-A3BC-40C61197C808}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9C7BC957-0827-4B11-B867-626A20940E90}" name="#Question" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{207B6249-1B44-4DC0-AE3C-5E4D22D37DE0}" name="Discord" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9619B039-F534-429D-9046-917A1AE62548}" name="Discord New" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{994F931F-5D46-4E10-8ADA-2F2703803BF1}" name="My Try" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B203D1CF-1B30-4B37-BFF2-6B064A7ED6B1}" name="My Try Status" dataDxfId="3">
+      <calculatedColumnFormula>B2=D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -682,20 +700,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="35.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -703,13 +721,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -719,12 +740,15 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="b">
-        <f>B2=C2</f>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <f>B2=D2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -734,12 +758,15 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="b">
-        <f t="shared" ref="D3:D21" si="0">B3=C3</f>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <f t="shared" ref="E3:E21" si="0">B3=D3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -749,12 +776,15 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="b">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -764,12 +794,15 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="b">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -779,12 +812,15 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="b">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -792,202 +828,247 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0.78259999999999996</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="b">
+      <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D21">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
